--- a/ket_qua_backtest.xlsx
+++ b/ket_qua_backtest.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,18 +468,13 @@
           <t>Lợi nhuận (USD)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pip</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45716.83333333334</v>
+        <v>45628.16666666666</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45718.92013888889</v>
+        <v>45628.64930555555</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -487,49 +482,43 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.25697</v>
+        <v>1.26898</v>
       </c>
       <c r="E2" t="n">
-        <v>1.25726</v>
+        <v>1.26185</v>
       </c>
       <c r="F2" t="n">
-        <v>2.071428571429454</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.900000000001235</v>
+        <v>-101.857142857144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45718.92083333333</v>
+        <v>45628.65277777778</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45719.33333333334</v>
+        <v>45631.5625</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bán</t>
+          <t>Mua</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.25724</v>
+        <v>1.26202</v>
       </c>
       <c r="E3" t="n">
-        <v>1.26007</v>
+        <v>1.27413</v>
       </c>
       <c r="F3" t="n">
-        <v>-20.25615816326611</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-28.3000000000011</v>
+        <v>155.3787142857149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45719.33402777778</v>
+        <v>45631.56597222222</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45720.35277777778</v>
+        <v>45638.5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -537,74 +526,65 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.25973</v>
+        <v>1.27415</v>
       </c>
       <c r="E4" t="n">
-        <v>1.27178</v>
+        <v>1.27394</v>
       </c>
       <c r="F4" t="n">
-        <v>84.50624291727488</v>
-      </c>
-      <c r="G4" t="n">
-        <v>120.5000000000012</v>
+        <v>-3.160564714286368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45720.35347222222</v>
+        <v>45638.50347222222</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45721.34305555555</v>
+        <v>45639.65972222222</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.27187</v>
+        <v>1.27335</v>
       </c>
       <c r="E5" t="n">
-        <v>1.28454</v>
+        <v>1.26081</v>
       </c>
       <c r="F5" t="n">
-        <v>96.50209695595186</v>
-      </c>
-      <c r="G5" t="n">
-        <v>126.6999999999996</v>
+        <v>188.1646717742446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45721.34375</v>
+        <v>45639.66319444445</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45728.52083333334</v>
+        <v>45642.5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mua</t>
+          <t>Bán</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.28464</v>
+        <v>1.26135</v>
       </c>
       <c r="E6" t="n">
-        <v>1.29733</v>
+        <v>1.26491</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4016543890782</v>
-      </c>
-      <c r="G6" t="n">
-        <v>126.9000000000009</v>
+        <v>-62.98787736313104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45728.52152777778</v>
+        <v>45642.50347222222</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45737.66597222222</v>
+        <v>45644.66666666666</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -612,16 +592,827 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.29674</v>
+        <v>1.26485</v>
       </c>
       <c r="E7" t="n">
-        <v>1.28932</v>
+        <v>1.26903</v>
       </c>
       <c r="F7" t="n">
-        <v>-67.21593902753465</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-74.19999999999982</v>
+        <v>70.19640012434269</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45644.67013888889</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45644.99305555555</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.26845</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.25633</v>
+      </c>
+      <c r="F8" t="n">
+        <v>215.6899788449575</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45644.99652777778</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45645.36805555555</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.25672</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.26437</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-159.7127853960621</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45645.37152777778</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45645.70486111111</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.26475</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.25274</v>
+      </c>
+      <c r="F10" t="n">
+        <v>223.3364835761531</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45645.70833333334</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45646.66666666666</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.25324</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.25422</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-21.35067029585147</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45646.67013888889</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45656.5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.25505</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.25947</v>
+      </c>
+      <c r="F12" t="n">
+        <v>94.9477379895244</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45656.50347222222</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45659.43402777778</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.26021</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.24808</v>
+      </c>
+      <c r="F13" t="n">
+        <v>277.0223313513915</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45659.4375</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45663.16666666666</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1.24727</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.2434</v>
+      </c>
+      <c r="F14" t="n">
+        <v>103.6976051889642</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45663.17013888889</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45664.3125</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1.24339</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.25542</v>
+      </c>
+      <c r="F15" t="n">
+        <v>340.1679933797294</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45664.31597222222</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45664.6875</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1.25594</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.24885</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-234.93554414357</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45664.69097222222</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45664.83333333334</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.24979</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.24869</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-32.75795807027461</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45664.83680555555</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45665.47916666666</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1.24844</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.23371</v>
+      </c>
+      <c r="F18" t="n">
+        <v>431.7656282032599</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45665.48263888889</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45667.5625</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1.23352</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.22003</v>
+      </c>
+      <c r="F19" t="n">
+        <v>478.6261639333389</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45667.56597222222</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45670.83333333334</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.22108</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.21686</v>
+      </c>
+      <c r="F20" t="n">
+        <v>178.5802217103339</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45670.83680555555</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45672.56597222222</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1.21714</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.22921</v>
+      </c>
+      <c r="F21" t="n">
+        <v>541.565620676936</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45672.56944444445</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45673.29513888889</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1.22753</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.22041</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-374.5503471196269</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45673.29861111111</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45677.82986111111</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1.22148</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.2335</v>
+      </c>
+      <c r="F23" t="n">
+        <v>568.0010923738379</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45677.83333333334</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45678.03819444445</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1.2341</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.22591</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-453.471847153971</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45678.04166666666</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45681.09375</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.22565</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.23856</v>
+      </c>
+      <c r="F25" t="n">
+        <v>631.1802107188333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45681.09722222222</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45681.71180555555</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1.23777</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.24993</v>
+      </c>
+      <c r="F26" t="n">
+        <v>704.1571311847764</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45681.71527777778</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45685.49652777778</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1.24968</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.24259</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-481.8863589965051</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.5</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45688.66666666666</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1.24222</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.24197</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-15.27073889002622</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45688.67013888889</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45690.97222222222</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1.24173</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.2295</v>
+      </c>
+      <c r="F29" t="n">
+        <v>744.376530262331</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45690.97569444445</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45691.5</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1.22884</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.2318</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-211.6363076358843</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45691.50347222222</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45691.89930555555</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1.23173</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.24375</v>
+      </c>
+      <c r="F31" t="n">
+        <v>823.0740286109499</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45691.90277777778</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45694.33333333334</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.24429</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.24744</v>
+      </c>
+      <c r="F32" t="n">
+        <v>252.7357680699145</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45694.33680555555</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45699.12152777778</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1.24672</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.2347</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1007.805939412453</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45699.125</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45699.66666666666</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1.23473</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.24104</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-619.9027029716461</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45699.67013888889</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45701.72916666666</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1.24194</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.2542</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1095.867001690633</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45701.73263888889</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45708.75694444445</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1.25383</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.26604</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1282.548239124065</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45708.76041666666</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45713.16666666666</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1.26577</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.26323</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-313.3418257581685</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45713.17013888889</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45714.5</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1.2633</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.26496</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-197.35177547226</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45714.50347222222</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45715.5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1.26528</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.26747</v>
+      </c>
+      <c r="F39" t="n">
+        <v>254.187388428129</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45715.50347222222</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45719.33333333334</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Bán</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1.26758</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.26003</v>
+      </c>
+      <c r="F40" t="n">
+        <v>903.7240453896629</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45719.33680555555</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45720.35763888889</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1.26021</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.27221</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1591.306710765613</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45720.36111111111</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45721.34027777778</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1.27219</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.28454</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1918.471792848031</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45721.34375</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45728.67013888889</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1.28506</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.29767</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2304.459662809076</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45728.67361111111</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Mua</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1.29801</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.29673</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-276.0568803820032</v>
       </c>
     </row>
   </sheetData>
